--- a/medicine/Handicap/Oreille_de_Mozart/Oreille_de_Mozart.xlsx
+++ b/medicine/Handicap/Oreille_de_Mozart/Oreille_de_Mozart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Oreille de Mozart ou oreille de Wildermuth, est une malformation congénitale de l'oreille externe qui modifie l'aspect du pavillon.  Elle est caractérisée par la fusion de l'hélix et de l'antihélix ; en conséquence de quoi la conque est agrandie, l'antitragus est abaissé et le lobe est hypoplasique.
 Cette malformation de cause génétique se transmet à la descendance sur un mode autosomique récessif.
-Nommée ainsi en raison de la malformation de l’oreille gauche du compositeur autrichien Wolfgang Amadeus Mozart (1756-1791) et d'un de ses fils, Franz Xaver Wolfgang Mozart (1791-1844)[1], lui aussi compositeur.
-Cette malformation congénitale permit à Constance Mozart de démentir la rumeur[2] selon laquelle son dernier fils était l'enfant illégitime de Franz Xaver Süßmayr, élève de Wolfgang Mozart.
+Nommée ainsi en raison de la malformation de l’oreille gauche du compositeur autrichien Wolfgang Amadeus Mozart (1756-1791) et d'un de ses fils, Franz Xaver Wolfgang Mozart (1791-1844), lui aussi compositeur.
+Cette malformation congénitale permit à Constance Mozart de démentir la rumeur selon laquelle son dernier fils était l'enfant illégitime de Franz Xaver Süßmayr, élève de Wolfgang Mozart.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Traduction de l'article en espagnol.
 ↑ Peter J. Davies, Mozart's Illnesses and Death [Les maladies de Mozart et la mort], vol. 125, Musical Times, 1984, 437–442 p. (lire en ligne).
